--- a/demo-springcloud/dsc-hoxton/dsc-h-tool/file/read/行政区划数据.xlsx
+++ b/demo-springcloud/dsc-hoxton/dsc-h-tool/file/read/行政区划数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Repo-IDEA\demo-springcloud\dsc-hoxton\dsc-h-tool\file\read\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A240A7-8F1B-414F-90A6-C8F9CA4875A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F338DC-0ACB-4731-9CBB-8A75D7DFA7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,12 +63,6 @@
     <t>萝岗区</t>
   </si>
   <si>
-    <t>增城市</t>
-  </si>
-  <si>
-    <t>从化市</t>
-  </si>
-  <si>
     <t>韶关市</t>
   </si>
   <si>
@@ -460,11 +454,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
+    <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代码</t>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从化区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增城区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,7 +798,7 @@
   <dimension ref="A1:B163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -806,10 +808,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -825,7 +827,7 @@
         <v>440100</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -918,18 +920,18 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>440183</v>
+        <v>440117</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>440184</v>
+        <v>440118</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -937,7 +939,7 @@
         <v>440200</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -953,7 +955,7 @@
         <v>440203</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -961,7 +963,7 @@
         <v>440204</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -969,7 +971,7 @@
         <v>440205</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -977,7 +979,7 @@
         <v>440222</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -985,7 +987,7 @@
         <v>440224</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -993,7 +995,7 @@
         <v>440229</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1001,7 +1003,7 @@
         <v>440232</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1009,7 +1011,7 @@
         <v>440233</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1017,7 +1019,7 @@
         <v>440281</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1025,7 +1027,7 @@
         <v>440282</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1033,7 +1035,7 @@
         <v>440300</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1049,7 +1051,7 @@
         <v>440303</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1057,7 +1059,7 @@
         <v>440304</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1065,7 +1067,7 @@
         <v>440305</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1073,7 +1075,7 @@
         <v>440306</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1081,7 +1083,7 @@
         <v>440307</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1089,7 +1091,7 @@
         <v>440308</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1097,7 +1099,7 @@
         <v>440400</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1113,7 +1115,7 @@
         <v>440402</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1121,7 +1123,7 @@
         <v>440403</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1129,7 +1131,7 @@
         <v>440404</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1137,7 +1139,7 @@
         <v>440500</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1153,7 +1155,7 @@
         <v>440507</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1161,7 +1163,7 @@
         <v>440511</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1169,7 +1171,7 @@
         <v>440512</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1177,7 +1179,7 @@
         <v>440513</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1185,7 +1187,7 @@
         <v>440514</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1193,7 +1195,7 @@
         <v>440515</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1201,7 +1203,7 @@
         <v>440523</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1209,7 +1211,7 @@
         <v>440600</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1225,7 +1227,7 @@
         <v>440604</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1233,7 +1235,7 @@
         <v>440605</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1241,7 +1243,7 @@
         <v>440606</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1249,7 +1251,7 @@
         <v>440607</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1257,7 +1259,7 @@
         <v>440608</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1265,7 +1267,7 @@
         <v>440700</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1281,7 +1283,7 @@
         <v>440703</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1289,7 +1291,7 @@
         <v>440704</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1297,7 +1299,7 @@
         <v>440705</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1305,7 +1307,7 @@
         <v>440781</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1313,7 +1315,7 @@
         <v>440783</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1321,7 +1323,7 @@
         <v>440784</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1329,7 +1331,7 @@
         <v>440785</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1337,7 +1339,7 @@
         <v>440800</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1353,7 +1355,7 @@
         <v>440802</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1361,7 +1363,7 @@
         <v>440803</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1369,7 +1371,7 @@
         <v>440804</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1377,7 +1379,7 @@
         <v>440811</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1385,7 +1387,7 @@
         <v>440823</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1393,7 +1395,7 @@
         <v>440825</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1401,7 +1403,7 @@
         <v>440881</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1409,7 +1411,7 @@
         <v>440882</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1417,7 +1419,7 @@
         <v>440883</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1425,7 +1427,7 @@
         <v>440900</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1441,7 +1443,7 @@
         <v>440902</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1449,7 +1451,7 @@
         <v>440903</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1457,7 +1459,7 @@
         <v>440923</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1465,7 +1467,7 @@
         <v>440981</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1473,7 +1475,7 @@
         <v>440982</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1481,7 +1483,7 @@
         <v>440983</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1489,7 +1491,7 @@
         <v>441200</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1505,7 +1507,7 @@
         <v>441202</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1513,7 +1515,7 @@
         <v>441203</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1521,7 +1523,7 @@
         <v>441223</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1529,7 +1531,7 @@
         <v>441224</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1537,7 +1539,7 @@
         <v>441225</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1545,7 +1547,7 @@
         <v>441226</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1553,7 +1555,7 @@
         <v>441283</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1561,7 +1563,7 @@
         <v>441284</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1569,7 +1571,7 @@
         <v>441300</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1585,7 +1587,7 @@
         <v>441302</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1593,7 +1595,7 @@
         <v>441303</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1601,7 +1603,7 @@
         <v>441322</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1609,7 +1611,7 @@
         <v>441323</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1617,7 +1619,7 @@
         <v>441324</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1625,7 +1627,7 @@
         <v>441400</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1641,7 +1643,7 @@
         <v>441402</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1649,7 +1651,7 @@
         <v>441421</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1657,7 +1659,7 @@
         <v>441422</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1665,7 +1667,7 @@
         <v>441423</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1673,7 +1675,7 @@
         <v>441424</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1681,7 +1683,7 @@
         <v>441426</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1689,7 +1691,7 @@
         <v>441427</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1697,7 +1699,7 @@
         <v>441481</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1705,7 +1707,7 @@
         <v>441500</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1721,7 +1723,7 @@
         <v>441502</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1729,7 +1731,7 @@
         <v>441521</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -1737,7 +1739,7 @@
         <v>441523</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1745,7 +1747,7 @@
         <v>441581</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1753,7 +1755,7 @@
         <v>441600</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1769,7 +1771,7 @@
         <v>441602</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -1777,7 +1779,7 @@
         <v>441621</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -1785,7 +1787,7 @@
         <v>441622</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -1793,7 +1795,7 @@
         <v>441623</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -1801,7 +1803,7 @@
         <v>441624</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -1809,7 +1811,7 @@
         <v>441625</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -1817,7 +1819,7 @@
         <v>441700</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -1833,7 +1835,7 @@
         <v>441702</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -1841,7 +1843,7 @@
         <v>441721</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -1849,7 +1851,7 @@
         <v>441723</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -1857,7 +1859,7 @@
         <v>441781</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -1865,7 +1867,7 @@
         <v>441800</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -1881,7 +1883,7 @@
         <v>441802</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -1889,7 +1891,7 @@
         <v>441821</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -1897,7 +1899,7 @@
         <v>441823</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -1905,7 +1907,7 @@
         <v>441825</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -1913,7 +1915,7 @@
         <v>441826</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -1921,7 +1923,7 @@
         <v>441827</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -1929,7 +1931,7 @@
         <v>441881</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -1937,7 +1939,7 @@
         <v>441882</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -1945,7 +1947,7 @@
         <v>441900</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -1953,7 +1955,7 @@
         <v>442000</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -1961,7 +1963,7 @@
         <v>445100</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -1977,7 +1979,7 @@
         <v>445102</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -1985,7 +1987,7 @@
         <v>445121</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -1993,7 +1995,7 @@
         <v>445122</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -2001,7 +2003,7 @@
         <v>445200</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -2017,7 +2019,7 @@
         <v>445202</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -2025,7 +2027,7 @@
         <v>445221</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -2033,7 +2035,7 @@
         <v>445222</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -2041,7 +2043,7 @@
         <v>445224</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -2049,7 +2051,7 @@
         <v>445281</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -2057,7 +2059,7 @@
         <v>445300</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -2073,7 +2075,7 @@
         <v>445302</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -2081,7 +2083,7 @@
         <v>445321</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -2089,7 +2091,7 @@
         <v>445322</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -2097,7 +2099,7 @@
         <v>445323</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -2105,7 +2107,7 @@
         <v>445381</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
